--- a/data/trans_camb/P53_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,72</t>
+          <t>-6,09; 5,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 4,89</t>
+          <t>-6,96; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 8,38</t>
+          <t>-5,63; 7,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 2,66</t>
+          <t>-12,9; -2,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,99</t>
+          <t>-7,69; 2,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 1,66</t>
+          <t>-8,06; 2,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,05</t>
+          <t>-8,13; 2,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 1,84</t>
+          <t>-18,64; -8,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,95</t>
+          <t>-5,71; 2,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 2,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 2,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; -7,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-4,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-40,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,99%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>-49,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-7,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-45,95%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 29,95</t>
+          <t>-28,96; 33,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 31,78</t>
+          <t>-33,6; 37,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 52,3</t>
+          <t>-27,61; 49,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 11,05</t>
+          <t>-59,0; -14,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 8,22</t>
+          <t>-25,89; 8,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 6,47</t>
+          <t>-26,77; 9,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 9,73</t>
+          <t>-27,3; 8,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 8,62</t>
+          <t>-62,31; -33,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 13,16</t>
+          <t>-22,14; 10,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 14,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 12,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-57,92; -33,44</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 12,25</t>
+          <t>-3,72; 9,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 11,97</t>
+          <t>-1,97; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 16,12</t>
+          <t>0,55; 14,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 4,47</t>
+          <t>-10,28; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 3,02</t>
+          <t>-9,19; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 1,84</t>
+          <t>-10,83; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,39</t>
+          <t>-9,69; 3,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,33</t>
+          <t>-17,6; -4,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 7,93</t>
+          <t>-4,18; 4,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 5,3</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 7,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; -2,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>-34,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-29,77%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 73,25</t>
+          <t>-16,64; 56,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 70,35</t>
+          <t>-9,75; 70,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 94,65</t>
+          <t>1,59; 85,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 14,88</t>
+          <t>-47,8; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 9,68</t>
+          <t>-25,6; 11,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 6,07</t>
+          <t>-30,34; 9,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 26,85</t>
+          <t>-27,65; 10,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 22,33</t>
+          <t>-49,72; -14,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 32,78</t>
+          <t>-14,49; 19,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-15,44; 22,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 29,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,96; -10,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-6,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 16,17</t>
+          <t>-18,13; 12,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 13,52</t>
+          <t>-16,35; 16,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 12,4</t>
+          <t>-18,24; 14,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 7,77</t>
+          <t>-20,9; 14,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 11,79</t>
+          <t>-13,72; 10,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 10,75</t>
+          <t>-11,12; 14,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 7,43</t>
+          <t>-12,44; 11,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 8,42</t>
+          <t>-20,03; 5,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 7,03</t>
+          <t>-11,02; 8,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 10,77</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 8,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,94; 4,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,83%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 68,95</t>
+          <t>-47,15; 54,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 56,4</t>
+          <t>-45,25; 75,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 56,35</t>
+          <t>-50,64; 57,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 24,03</t>
+          <t>-56,88; 57,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 35,37</t>
+          <t>-32,32; 32,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 32,11</t>
+          <t>-26,6; 42,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 23,76</t>
+          <t>-28,91; 34,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 27,08</t>
+          <t>-46,92; 17,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 23,7</t>
+          <t>-27,94; 25,45</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-29,44; 36,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 26,3</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,32; 15,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>-3,22</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,79</t>
+          <t>-3,45; 4,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,74</t>
+          <t>-3,37; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,15</t>
+          <t>-1,86; 7,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,64</t>
+          <t>-10,2; -2,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,75</t>
+          <t>-6,35; 1,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 0,36</t>
+          <t>-6,62; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,29</t>
+          <t>-7,18; 0,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,66</t>
+          <t>-15,81; -7,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,8</t>
+          <t>-3,56; 1,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 1,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 3,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,69; -6,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,5%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>-38,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-3,95%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-35,18%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 30,61</t>
+          <t>-15,6; 25,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 30,89</t>
+          <t>-14,96; 31,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 44,2</t>
+          <t>-8,94; 40,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 5,48</t>
+          <t>-45,37; -10,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 2,78</t>
+          <t>-19,56; 3,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 1,19</t>
+          <t>-20,22; 5,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 9,19</t>
+          <t>-22,43; 1,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 6,54</t>
+          <t>-49,27; -26,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 11,34</t>
+          <t>-13,5; 7,71</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 8,01</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 12,62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; -23,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
